--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_MainStory_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_MainStory_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38AEBB5-B1B1-44C6-9E1E-B4A86A339C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F2D27-9C90-4468-A053-0609057913FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,13 +1653,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.375" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.625" bestFit="1" customWidth="1"/>
@@ -2246,7 +2248,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="108">
+    <row r="25" spans="1:9" ht="94.5">
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="189">
+    <row r="29" spans="1:9" ht="135">
       <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="148.5">
+    <row r="32" spans="1:9" ht="108">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="175.5">
+    <row r="40" spans="1:9" ht="162">
       <c r="A40" s="2" t="s">
         <v>161</v>
       </c>

--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_MainStory_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_MainStory_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B18D9-C47D-4C90-8D79-020E45DDBEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5BA86-1F21-4560-BCD7-4EC37D829EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>0#将等级提升至3级#1</t>
   </si>
   <si>
-    <t>0#Reach level 3#1</t>
-  </si>
-  <si>
     <t>新主线2</t>
   </si>
   <si>
@@ -121,10 +118,6 @@
 0#消灭火魔人#1</t>
   </si>
   <si>
-    <t>0#Find Malak near the Pāhoehoe Lava Void#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
-0#Defeat the Ifrit#1</t>
-  </si>
-  <si>
     <t>新主线3</t>
   </si>
   <si>
@@ -137,9 +130,6 @@
     <t>0#等待阿月再次联系你#1</t>
   </si>
   <si>
-    <t>0#Wait for Isra to contact you#1</t>
-  </si>
-  <si>
     <t>新主线4</t>
   </si>
   <si>
@@ -152,9 +142,6 @@
     <t>0#前往西多喀那沙漠的石柱长廊#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
   </si>
   <si>
-    <t>0#Find the temple ruins in the West Docana Desert#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
-  </si>
-  <si>
     <t>新主线5</t>
   </si>
   <si>
@@ -167,9 +154,6 @@
     <t>0#前往寻找阿月#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
   </si>
   <si>
-    <t>0#Find Isra#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
-  </si>
-  <si>
     <t>新主线6</t>
   </si>
   <si>
@@ -182,9 +166,6 @@
     <t>0#探索火魔人与大河女神的秘密#1|大河神庙银珊</t>
   </si>
   <si>
-    <t>0#Unravel the secrets of the Ifrit and the River Goddess#1|大河神庙银珊</t>
-  </si>
-  <si>
     <t>新主线7</t>
   </si>
   <si>
@@ -197,9 +178,6 @@
     <t>0#等待七天的时间后前往黑崖的巫师法阵#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
   </si>
   <si>
-    <t>0#Wait for 7 days before heading to the Umbra Cliffs#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
-  </si>
-  <si>
     <t>新主线8</t>
   </si>
   <si>
@@ -212,9 +190,6 @@
     <t>0#探索火魔藏身处#1|新主线火魔结界银珊</t>
   </si>
   <si>
-    <t>0#Explore the Ifrit's base#1|新主线火魔结界银珊</t>
-  </si>
-  <si>
     <t>新主线9</t>
   </si>
   <si>
@@ -227,9 +202,6 @@
     <t>0#想办法离开废墟世界#1|不知名火魔</t>
   </si>
   <si>
-    <t>0#Think of a way to leave the Ifrit's domain#1|不知名火魔</t>
-  </si>
-  <si>
     <t>新主线10</t>
   </si>
   <si>
@@ -242,9 +214,6 @@
     <t>0#已收集的线索#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
   </si>
   <si>
-    <t>0#Collected clues#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
-  </si>
-  <si>
     <t>新主线11</t>
   </si>
   <si>
@@ -255,9 +224,6 @@
   </si>
   <si>
     <t>0#击败三队游荡的火魔人散兵#3</t>
-  </si>
-  <si>
-    <t>0#Defeat three squads of Ifrit#3</t>
   </si>
   <si>
     <t>新主线12</t>
@@ -274,11 +240,6 @@
 0#检查风哭岩的河流#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
   </si>
   <si>
-    <t>0#Check the river in Twinluna Valley#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
-0#Check the river in the Umbra Cliffs#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
-0#Check the river in Crying Rock#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
-  </si>
-  <si>
     <t>新主线13</t>
   </si>
   <si>
@@ -291,9 +252,6 @@
     <t>0#与银珊一同前去与火魔暗主谈判#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
   </si>
   <si>
-    <t>0#Proceed with Ilayda to negotiate with the Ifrit Void Master#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
-  </si>
-  <si>
     <t>新主线14</t>
   </si>
   <si>
@@ -306,9 +264,6 @@
     <t>0#劝说五大部落签订协议#5</t>
   </si>
   <si>
-    <t>0#Persuade the five tribes to sign a treaty#5</t>
-  </si>
-  <si>
     <t>新主线雄鹰1</t>
   </si>
   <si>
@@ -321,9 +276,6 @@
     <t>0#说服霍驹代表雄鹰部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Husnu of the Nasir to sign the treaty#1</t>
-  </si>
-  <si>
     <t>新主线雄鹰2</t>
   </si>
   <si>
@@ -336,9 +288,6 @@
     <t>0#找到黑血水晶并交给霍驹#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Retrieve the Blackblood Crystal for Husnu#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
     <t>新主线雄鹰3</t>
   </si>
   <si>
@@ -351,9 +300,6 @@
     <t>0#前往狩猎山谷，把黑血水晶交还给兽人#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
   </si>
   <si>
-    <t>0#Proceed to Hunter's Valley and give the Blackblood Crystal to the Beastmen#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
-  </si>
-  <si>
     <t>新主线雄鹰4</t>
   </si>
   <si>
@@ -366,9 +312,6 @@
     <t>0#征服其他四大部落#4</t>
   </si>
   <si>
-    <t>0#Conquer the other four tribes#4</t>
-  </si>
-  <si>
     <t>新主线野马1</t>
   </si>
   <si>
@@ -381,9 +324,6 @@
     <t>0#说服苍骐代表野马部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Bahat of the Akhal to sign the treaty#1</t>
-  </si>
-  <si>
     <t>新主线野马2</t>
   </si>
   <si>
@@ -394,9 +334,6 @@
   </si>
   <si>
     <t>0#征服毒蝎部落#1</t>
-  </si>
-  <si>
-    <t>0#Conquer the Dakn#1</t>
   </si>
   <si>
     <t>新主线野马3</t>
@@ -412,10 +349,6 @@
 4#将画像交给野马王#1#银珊画像</t>
   </si>
   <si>
-    <t>0#Go to Redstone Keep, the Golden Bazaar, and Camel Bell Bazaar and post notices recruiting skilled artists who can paint a portrait#1
-4#Give the painting to Bahat#1#银珊画像</t>
-  </si>
-  <si>
     <t>新主线野马3画师1</t>
   </si>
   <si>
@@ -426,9 +359,6 @@
   </si>
   <si>
     <t>4#收集8000乌塔并带去[%str_val:布告城市名字%]#8000#金钱</t>
-  </si>
-  <si>
-    <t>4#Collect 8000 Utar and take it to [%str_val:布告城市名字%]#8000#金钱</t>
   </si>
   <si>
     <t>新主线野马3画师2</t>
@@ -444,10 +374,6 @@
 4#收集500铁石并带去[%str_val:布告城市名字%]#500#铁石</t>
   </si>
   <si>
-    <t>4#Collect 1500 Wood and take it to [%str_val:布告城市名字%]#1500#木材
-4#Collect 500 Ironstone and take it to [%str_val:布告城市名字%]#500#铁石</t>
-  </si>
-  <si>
     <t>新主线野马3画师3</t>
   </si>
   <si>
@@ -460,9 +386,6 @@
     <t>0#击败五队沙漠兄弟会的游荡队伍后前往[%str_val:布告城市名字%]#5</t>
   </si>
   <si>
-    <t>0#Defeat 5 Desert Brotherhood squads and head to [%str_val:布告城市名字%]#5</t>
-  </si>
-  <si>
     <t>新主线野马4</t>
   </si>
   <si>
@@ -475,9 +398,6 @@
     <t>4#收集200玉石交给野马王苍骐#200#玉石</t>
   </si>
   <si>
-    <t>4#Collect 200 Jade for Bahat, Sultan of the Akhal#200#玉石</t>
-  </si>
-  <si>
     <t>新主线雪狼1</t>
   </si>
   <si>
@@ -488,9 +408,6 @@
   </si>
   <si>
     <t>0#说服封凛代表雪狼部落签字#1</t>
-  </si>
-  <si>
-    <t>0#Persuade Ruha of the Dhib to sign the treaty#1</t>
   </si>
   <si>
     <t>新主线雪狼2</t>
@@ -506,10 +423,6 @@
 0#将剑豪带去封凛处比试#1</t>
   </si>
   <si>
-    <t>0#Seek out the Swordmaster in Limestone Village#1##大雪山:11303,3799:100|雪山剑豪
-0#Take the Swordmaster to a duel with Ruha#1</t>
-  </si>
-  <si>
     <t>新主线雪狼3</t>
   </si>
   <si>
@@ -522,9 +435,6 @@
     <t>0#在冰谷附近东北找到一座冰川，并在不受伤的情况下击败里面的怪物#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
   </si>
   <si>
-    <t>0#Locate a glacier at the northeast edge of Frost Valley. Defeat the monsters within without getting hurt.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
-  </si>
-  <si>
     <t>新主线毒蝎1</t>
   </si>
   <si>
@@ -537,9 +447,6 @@
     <t>0#说服阿曼莎代表毒蝎部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Rebiya to sign on behalf of the Dakn#1</t>
-  </si>
-  <si>
     <t>新主线毒蝎2</t>
   </si>
   <si>
@@ -552,9 +459,6 @@
     <t>0#前往半月山集市寻找古达#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
   </si>
   <si>
-    <t>0#Find Jihan in the Halfmoon Hills Bazaar#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
-  </si>
-  <si>
     <t>新主线毒蝎3</t>
   </si>
   <si>
@@ -567,9 +471,6 @@
     <t>0#调查古达的房子的线索#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
   </si>
   <si>
-    <t>0#Investigate Jihan's home#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
-  </si>
-  <si>
     <t>新主线毒蝎4</t>
   </si>
   <si>
@@ -582,9 +483,6 @@
     <t>0#找到古达并将弦萝带给阿曼莎#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
   </si>
   <si>
-    <t>0#Speak with Jihan and take Dahlia back to Rebiya#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
-  </si>
-  <si>
     <t>新主线毒蝎5</t>
   </si>
   <si>
@@ -606,9 +504,6 @@
     <t>0#说服汗卢达代表蛮牛部落签字#1</t>
   </si>
   <si>
-    <t>0#Persuade Ludo Khan of the Thur to sign the treaty#1</t>
-  </si>
-  <si>
     <t>新主线蛮牛2</t>
   </si>
   <si>
@@ -621,9 +516,6 @@
     <t>0#在各地寻找线索#1</t>
   </si>
   <si>
-    <t>0#Search for clues#1</t>
-  </si>
-  <si>
     <t>新主线蛮牛3</t>
   </si>
   <si>
@@ -636,9 +528,6 @@
     <t>0#解决白牛的归属权#1##大雪山:-9520,9619:500|主线白牛</t>
   </si>
   <si>
-    <t>0#Resolve the squabble over the yak#1|主线白牛</t>
-  </si>
-  <si>
     <t>新主线蛮牛4</t>
   </si>
   <si>
@@ -651,9 +540,6 @@
     <t>0#告诉汗卢达你经历的事情#1</t>
   </si>
   <si>
-    <t>0#Tell Ludo Khan your story#1</t>
-  </si>
-  <si>
     <t>新主线15</t>
   </si>
   <si>
@@ -666,9 +552,6 @@
     <t>0#击败五队四处入侵沙扎尔的火魔人战团并打听出有用的线索#5</t>
   </si>
   <si>
-    <t>0#Defeat five squads of the Ifrit invading Salzaar and gather any available information#5</t>
-  </si>
-  <si>
     <t>新主线16</t>
   </si>
   <si>
@@ -681,9 +564,6 @@
     <t>0#前往火魔之地寻找火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
-    <t>0#Journey to the Ifrit's domain and find the Ifrit Void Master's base#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
     <t>新主线17</t>
   </si>
   <si>
@@ -696,9 +576,6 @@
     <t>0#探索花圃并离开#1|trigger:大主线新版1309</t>
   </si>
   <si>
-    <t>0#Explore the garden and leave#1|trigger:大主线新版1309</t>
-  </si>
-  <si>
     <t>新主线18</t>
   </si>
   <si>
@@ -711,9 +588,6 @@
     <t>0#前往火魔暗主的烈火军营#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
   </si>
   <si>
-    <t>0#Return to the Fire Barracks to speak with the Ifrit Void Master#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
-  </si>
-  <si>
     <t>新主线19</t>
   </si>
   <si>
@@ -729,9 +603,6 @@
     <t>0#击败霍翎#1</t>
   </si>
   <si>
-    <t>0#Defeat Olum#1</t>
-  </si>
-  <si>
     <t>新主线千年前</t>
   </si>
   <si>
@@ -742,9 +613,6 @@
   </si>
   <si>
     <t>0#弄清楚自己身处何处#1</t>
-  </si>
-  <si>
-    <t>0#Figure out where you are#1</t>
   </si>
   <si>
     <t>新主线千年前1</t>
@@ -760,10 +628,6 @@
 0#找到阿力#1</t>
   </si>
   <si>
-    <t>0#Find Little Hewez#1
-0#Find Ali#1</t>
-  </si>
-  <si>
     <t>新主线千年前2</t>
   </si>
   <si>
@@ -776,9 +640,6 @@
     <t>0#运送栅栏#1|木工</t>
   </si>
   <si>
-    <t>0#Transport the fence#1|木工</t>
-  </si>
-  <si>
     <t>新主线千年前3</t>
   </si>
   <si>
@@ -791,9 +652,6 @@
     <t>0#在树林里为她找到三颗发光的蘑菇#3</t>
   </si>
   <si>
-    <t>0#Find three glowing mushrooms for her in the woods#3</t>
-  </si>
-  <si>
     <t>新主线千年前4</t>
   </si>
   <si>
@@ -804,9 +662,6 @@
   </si>
   <si>
     <t>0#前往河岸保护大河女神#1|新主线结局大河女神河边</t>
-  </si>
-  <si>
-    <t>0#Protect the River Goddess along the riverbank#1|新主线结局大河女神河边</t>
   </si>
   <si>
     <t>新主线20</t>
@@ -822,10 +677,6 @@
 0#击败黑火#1</t>
   </si>
   <si>
-    <t>0#Return to the Ifrit Void Master's base and find the portal to the realm of Obsidian Flame#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
-0#Defeat the Obsidian Flame#1</t>
-  </si>
-  <si>
     <t>Covil do Ifrit</t>
   </si>
   <si>
@@ -1107,6 +958,155 @@
   </si>
   <si>
     <t>Você desperta das memórias de mil anos atrás, já ciente da verdadeira identidade por trás das cortinas - a Chama Obsidiana, Todas as contradições e conflitos são manipulados por suas mãos; e você, junto com Ilayda, são as únicas pessoas capazes de derrotá-la. É hora de entender tudo e restaurar a ordem em Salzaar!</t>
+  </si>
+  <si>
+    <t>0#Alcance o nível 3#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Malak perto do Vazio de Lava Pāhoehoe#1##沙盒红石城:-1019,-2024:500|火魔巢穴入口格瓦
+0#Derrote o Ifrit#1</t>
+  </si>
+  <si>
+    <t>0#Aguarde Isra entrar em contato#1</t>
+  </si>
+  <si>
+    <t>0#Encontre as ruínas do templo no Deserto Ocidental de Docana#1##大沙漠:-2497,6591:1000|新主线大沙漠假银珊</t>
+  </si>
+  <si>
+    <t>0#Encontre Isra#1##沙盒双月山谷:-2594,5573:500|双月山谷入口银珊</t>
+  </si>
+  <si>
+    <t>0#Desvende os segredos do Ifrit e da Deusa do Rio#1|大河神庙银珊</t>
+  </si>
+  <si>
+    <t>0#Aguarde 7 dias antes de seguir para os Penhascos de Umbra#1##沙盒黑崖花卉乡:-1324,-7083:0|大主线新版琨牙</t>
+  </si>
+  <si>
+    <t>0#Explore a base do Ifrit#1|新主线火魔结界银珊</t>
+  </si>
+  <si>
+    <t>0#Pense em uma maneira de sair do domínio do Ifrit#1|不知名火魔</t>
+  </si>
+  <si>
+    <t>0#Coletou pistas#3##沙盒黑崖花卉乡:3381,-12479:1000|新主线巫师盟会银珊</t>
+  </si>
+  <si>
+    <t>0#Derrote três esquadrões de Ifrit#3</t>
+  </si>
+  <si>
+    <t>0#Verifique o rio no Vale da Lua Gêmea#1##沙盒双月山谷:-1260,-1665:500|CHEST:新主线双月山谷河流
+0#Verifique o rio nos Penhascos de Umbra#1##沙盒黑崖花卉乡:-1989,1634:500|CHEST:新主线黑崖河流
+0#Verifique o rio em Rocha Chorosa#1##沙盒风哭岩:-2344,6484:500|CHEST:新主线风哭岩河流</t>
+  </si>
+  <si>
+    <t>0#Avance com Ilayda para negociar com o Mestre do Vazio Ifrit#1##沙盒风哭岩:-2344,6484:500|新主线河边银珊</t>
+  </si>
+  <si>
+    <t>0#Persuadir as cinco tribos a assinar um tratado#5</t>
+  </si>
+  <si>
+    <t>0#Persuadir Husnu dos Nasir a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Recupere o Cristal Sangue Negro para Husnu#1##沙盒双月山谷:-2807,3777:1000|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Prossiga para o Vale dos Caçadores e entregue o Cristal Sangue Negro para os Homem-Besta#1##沙盒双月山谷:-2807,3777:0|trigger:狩猎山谷入口</t>
+  </si>
+  <si>
+    <t>0#Conquiste as outras quatro tribos#4</t>
+  </si>
+  <si>
+    <t>0#Persuadir Bahat dos Akhal a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Conquiste os Dakn#1</t>
+  </si>
+  <si>
+    <t>0#Vá para a Fortaleza de Pedra Vermelha, o Bazar Dourado e o Bazar Sino de Camelo e coloque avisos recrutando artistas habilidosos que possam pintar um retrato#1
+4#Dê o quadro para Bahat#1#银珊画像</t>
+  </si>
+  <si>
+    <t>4#Colete 8000 Utar e leve para [%str_val:布告城市名字%]#8000#金钱</t>
+  </si>
+  <si>
+    <t>4#Colete 1500 Madeiras e leve para [%str_val:布告城市名字%]#1500#木材
+4#Colete 500 Pedras de Ferro e leve para [%str_val:布告城市名字%]#500#铁石</t>
+  </si>
+  <si>
+    <t>0#Derrote 5 esquadrões da Irmandade do Deserto e vá para [%str_val:布告城市名字%]#5</t>
+  </si>
+  <si>
+    <t>4#Colete 200 Jades para Bahat, Sultão dos Akhal#200#玉石</t>
+  </si>
+  <si>
+    <t>0#Persuadir Ruha dos Dhib a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Procure o Mestre das Espadas na Vila de Calcário#1##大雪山:11303,3799:100|雪山剑豪
+0#Leve o Mestre das Espadas para um duelo com Ruha#1</t>
+  </si>
+  <si>
+    <t>0#Localize uma geleira na borda nordeste do Vale da Geada. Derrote os monstros dentro sem se machucar.#1##大雪山:11418,10523:1000|大主线新版雪狼1110</t>
+  </si>
+  <si>
+    <t>0#Persuadir Rebiya a assinar em nome dos Dakn#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Jihan no Bazar das Colinas da Meia Lua#1##沙盒双月山谷:4110,-315:0|主线毒蝎半月山集市古达</t>
+  </si>
+  <si>
+    <t>0#Investigue a casa de Jihan#7##沙盒双月山谷:3339,-1614:200|trigger:大主线新版毒蝎1106</t>
+  </si>
+  <si>
+    <t>0#Converse com Jihan e leve Dahlia de volta para Rebiya#1##沙盒双月山谷:3051,3609:250|主线毒蝎古达</t>
+  </si>
+  <si>
+    <t>0#Persuadir Ludo Khan dos Thur a assinar o tratado#1</t>
+  </si>
+  <si>
+    <t>0#Procure por pistas#1</t>
+  </si>
+  <si>
+    <t>0#Resolva a disputa sobre o Yak#1|主线白牛</t>
+  </si>
+  <si>
+    <t>0#Conte a sua história para Ludo Khan#1</t>
+  </si>
+  <si>
+    <t>0#Derrote cinco esquadrões dos Ifrit que estão invadindo Salzaar e reúna qualquer informação disponível#5</t>
+  </si>
+  <si>
+    <t>0#Viaje para o domínio dos Ifrit e encontre a base do Mestre do Vazio Ifrit#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
+    <t>0#Explore o jardim e vá embora#1|trigger:大主线新版1309</t>
+  </si>
+  <si>
+    <t>0#Volte para os Alojamentos de Fogo para falar com o Mestre do Vácuo Ifrit#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口</t>
+  </si>
+  <si>
+    <t>0#Derrote Olum#1</t>
+  </si>
+  <si>
+    <t>0#Descubra onde você está#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o Pequeno Hewez#1
+0#Encontre Ali#1</t>
+  </si>
+  <si>
+    <t>0#Transporte a cerca#1|木工</t>
+  </si>
+  <si>
+    <t>0#Encontre três cogumelos brilhantes para ela na floresta#3</t>
+  </si>
+  <si>
+    <t>0#Proteja a Deusa do Rio ao longo da margem do rio#1|新主线结局大河女神河边</t>
+  </si>
+  <si>
+    <t>0#Volte para a base do Mestre do Vazio Ifrit e encontre o portal para o reino da Chama Obsidiana#1##沙盒火魔之地:-1975,5881:300|trigger:大主线新版火魔之地营地入口
+0#Derrote a Chama Obsidiana#1</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="I47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1712,1141 +1712,1141 @@
         <v>12</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="189">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="216">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="270">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="162">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="202.5">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="162">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="81">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="270">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="229.5">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="202.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="162">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="162">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="121.5">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="256.5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="202.5">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="243">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="202.5">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="405">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="202.5">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="256.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="202.5">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="108">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="94.5">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="175.5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="148.5">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="202.5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="162">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="121.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="94.5">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="108">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="81">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="121.5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="94.5">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="175.5">
       <c r="A22" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="108">
+        <v>93</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="94.5">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="189">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="108">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="94.5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="81">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="108">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="94.5">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="148.5">
       <c r="A28" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="189">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="108">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="81">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="148.5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="135">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="148.5">
       <c r="A32" s="2" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="229.5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="189">
       <c r="A33" s="2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="175.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="148.5">
       <c r="A34" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="108">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="94.5">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="189">
+    </row>
+    <row r="36" spans="1:9" ht="162">
       <c r="A36" s="2" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="G36" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="229.5">
+    </row>
+    <row r="37" spans="1:9" ht="189">
       <c r="A37" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="G37" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="202.5">
+    </row>
+    <row r="38" spans="1:9" ht="162">
       <c r="A38" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="D38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G38" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.5">
+    </row>
+    <row r="39" spans="1:9" ht="364.5">
       <c r="A39" s="2" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G39" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="175.5">
       <c r="A40" s="2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="D40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="108">
+    </row>
+    <row r="41" spans="1:9" ht="94.5">
       <c r="A41" s="2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G41" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="162">
+    </row>
+    <row r="42" spans="1:9" ht="148.5">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G42" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="175.5">
+    </row>
+    <row r="43" spans="1:9" ht="148.5">
       <c r="A43" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="G43" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="135">
+    </row>
+    <row r="44" spans="1:9" ht="108">
       <c r="A44" s="2" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="G44" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="54">
       <c r="A45" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="G45" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="81">
+    </row>
+    <row r="46" spans="1:9" ht="67.5">
       <c r="A46" s="2" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="121.5">
+    </row>
+    <row r="47" spans="1:9" ht="108">
       <c r="A47" s="2" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="G47" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="135">
+    </row>
+    <row r="48" spans="1:9" ht="108">
       <c r="A48" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G48" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="297">
       <c r="A49" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:9">
